--- a/output/vol_forecasting_ridge.xlsx
+++ b/output/vol_forecasting_ridge.xlsx
@@ -7,16 +7,779 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SAN.MC 1 días" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="249">
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>EWMA</t>
+  </si>
+  <si>
+    <t>GJR_GARCH</t>
+  </si>
+  <si>
+    <t>PERCEPTRON_STD</t>
+  </si>
+  <si>
+    <t>LSTM_STD</t>
+  </si>
+  <si>
+    <t>RANDOM_FOREST_STD</t>
+  </si>
+  <si>
+    <t>PERCEPTRON_EWMA</t>
+  </si>
+  <si>
+    <t>LSTM_EWMA</t>
+  </si>
+  <si>
+    <t>RANDOM_FOREST_EWMA</t>
+  </si>
+  <si>
+    <t>PERCEPTRON_GJR_GARCH</t>
+  </si>
+  <si>
+    <t>LSTM_GJR_GARCH</t>
+  </si>
+  <si>
+    <t>RANDOM_FOREST_GJR_GARCH</t>
+  </si>
+  <si>
+    <t>0,013687</t>
+  </si>
+  <si>
+    <t>0,013999</t>
+  </si>
+  <si>
+    <t>0,014135</t>
+  </si>
+  <si>
+    <t>0,014234</t>
+  </si>
+  <si>
+    <t>0,014256</t>
+  </si>
+  <si>
+    <t>0,014257</t>
+  </si>
+  <si>
+    <t>0,014350</t>
+  </si>
+  <si>
+    <t>0,014540</t>
+  </si>
+  <si>
+    <t>0,014492</t>
+  </si>
+  <si>
+    <t>0,014442</t>
+  </si>
+  <si>
+    <t>0,014516</t>
+  </si>
+  <si>
+    <t>0,014525</t>
+  </si>
+  <si>
+    <t>0,014515</t>
+  </si>
+  <si>
+    <t>0,014580</t>
+  </si>
+  <si>
+    <t>0,014692</t>
+  </si>
+  <si>
+    <t>0,014694</t>
+  </si>
+  <si>
+    <t>0,014950</t>
+  </si>
+  <si>
+    <t>0,015338</t>
+  </si>
+  <si>
+    <t>0,015354</t>
+  </si>
+  <si>
+    <t>0,015405</t>
+  </si>
+  <si>
+    <t>0,015331</t>
+  </si>
+  <si>
+    <t>[[0.01259691]]</t>
+  </si>
+  <si>
+    <t>[[0.01441261]]</t>
+  </si>
+  <si>
+    <t>[[0.01421381]]</t>
+  </si>
+  <si>
+    <t>[[0.01426705]]</t>
+  </si>
+  <si>
+    <t>[[0.01420581]]</t>
+  </si>
+  <si>
+    <t>[[0.01422438]]</t>
+  </si>
+  <si>
+    <t>[[0.01437313]]</t>
+  </si>
+  <si>
+    <t>[[0.01445805]]</t>
+  </si>
+  <si>
+    <t>[[0.01450855]]</t>
+  </si>
+  <si>
+    <t>[[0.01453142]]</t>
+  </si>
+  <si>
+    <t>[[0.01461739]]</t>
+  </si>
+  <si>
+    <t>[[0.01471617]]</t>
+  </si>
+  <si>
+    <t>[[0.01472741]]</t>
+  </si>
+  <si>
+    <t>[[0.01482523]]</t>
+  </si>
+  <si>
+    <t>[[0.01503325]]</t>
+  </si>
+  <si>
+    <t>[[0.01043461]]</t>
+  </si>
+  <si>
+    <t>[[0.01616149]]</t>
+  </si>
+  <si>
+    <t>[[0.01627498]]</t>
+  </si>
+  <si>
+    <t>[[0.01621309]]</t>
+  </si>
+  <si>
+    <t>[[0.01615955]]</t>
+  </si>
+  <si>
+    <t>[[0.01599226]]</t>
+  </si>
+  <si>
+    <t>[[0.01555888]]</t>
+  </si>
+  <si>
+    <t>[[0.015474]]</t>
+  </si>
+  <si>
+    <t>[[0.01515155]]</t>
+  </si>
+  <si>
+    <t>[[0.01514766]]</t>
+  </si>
+  <si>
+    <t>[[0.01489559]]</t>
+  </si>
+  <si>
+    <t>[[0.01595057]]</t>
+  </si>
+  <si>
+    <t>[[0.01814978]]</t>
+  </si>
+  <si>
+    <t>[[0.01768798]]</t>
+  </si>
+  <si>
+    <t>[[0.01423832]]</t>
+  </si>
+  <si>
+    <t>[[0.01797879]]</t>
+  </si>
+  <si>
+    <t>[[0.0186086]]</t>
+  </si>
+  <si>
+    <t>[[0.01848756]]</t>
+  </si>
+  <si>
+    <t>[[0.01892809]]</t>
+  </si>
+  <si>
+    <t>[[0.0174893]]</t>
+  </si>
+  <si>
+    <t>[[0.0180441]]</t>
+  </si>
+  <si>
+    <t>[[0.01690073]]</t>
+  </si>
+  <si>
+    <t>[[0.01659836]]</t>
+  </si>
+  <si>
+    <t>[[0.01666967]]</t>
+  </si>
+  <si>
+    <t>[[0.01689866]]</t>
+  </si>
+  <si>
+    <t>[[0.01650638]]</t>
+  </si>
+  <si>
+    <t>[[0.01682908]]</t>
+  </si>
+  <si>
+    <t>[[0.01793035]]</t>
+  </si>
+  <si>
+    <t>[[0.01808434]]</t>
+  </si>
+  <si>
+    <t>0,014966</t>
+  </si>
+  <si>
+    <t>0,016078</t>
+  </si>
+  <si>
+    <t>0,016473</t>
+  </si>
+  <si>
+    <t>0,016693</t>
+  </si>
+  <si>
+    <t>0,016537</t>
+  </si>
+  <si>
+    <t>0,016033</t>
+  </si>
+  <si>
+    <t>0,015933</t>
+  </si>
+  <si>
+    <t>0,016658</t>
+  </si>
+  <si>
+    <t>0,016263</t>
+  </si>
+  <si>
+    <t>0,015971</t>
+  </si>
+  <si>
+    <t>0,015806</t>
+  </si>
+  <si>
+    <t>0,015335</t>
+  </si>
+  <si>
+    <t>0,014982</t>
+  </si>
+  <si>
+    <t>0,014545</t>
+  </si>
+  <si>
+    <t>0,014405</t>
+  </si>
+  <si>
+    <t>0,014928</t>
+  </si>
+  <si>
+    <t>0,014599</t>
+  </si>
+  <si>
+    <t>0,015935</t>
+  </si>
+  <si>
+    <t>0,017393</t>
+  </si>
+  <si>
+    <t>0,016913</t>
+  </si>
+  <si>
+    <t>0,016742</t>
+  </si>
+  <si>
+    <t>0,016408</t>
+  </si>
+  <si>
+    <t>0,017017</t>
+  </si>
+  <si>
+    <t>0,016618</t>
+  </si>
+  <si>
+    <t>0,020262</t>
+  </si>
+  <si>
+    <t>0,019254</t>
+  </si>
+  <si>
+    <t>0,018396</t>
+  </si>
+  <si>
+    <t>0,018662</t>
+  </si>
+  <si>
+    <t>0,017824</t>
+  </si>
+  <si>
+    <t>0,018275</t>
+  </si>
+  <si>
+    <t>0,017637</t>
+  </si>
+  <si>
+    <t>0,017363</t>
+  </si>
+  <si>
+    <t>0,016766</t>
+  </si>
+  <si>
+    <t>0,017264</t>
+  </si>
+  <si>
+    <t>0,016720</t>
+  </si>
+  <si>
+    <t>0,016226</t>
+  </si>
+  <si>
+    <t>0,015811</t>
+  </si>
+  <si>
+    <t>0,016394</t>
+  </si>
+  <si>
+    <t>0,016053</t>
+  </si>
+  <si>
+    <t>0,015681</t>
+  </si>
+  <si>
+    <t>0,015582</t>
+  </si>
+  <si>
+    <t>0,020784</t>
+  </si>
+  <si>
+    <t>0,019778</t>
+  </si>
+  <si>
+    <t>0,019747</t>
+  </si>
+  <si>
+    <t>0,013843</t>
+  </si>
+  <si>
+    <t>0,013870</t>
+  </si>
+  <si>
+    <t>0,013604</t>
+  </si>
+  <si>
+    <t>0,013325</t>
+  </si>
+  <si>
+    <t>0,013338</t>
+  </si>
+  <si>
+    <t>0,013439</t>
+  </si>
+  <si>
+    <t>0,013602</t>
+  </si>
+  <si>
+    <t>0,013781</t>
+  </si>
+  <si>
+    <t>0,013998</t>
+  </si>
+  <si>
+    <t>0,014285</t>
+  </si>
+  <si>
+    <t>0,014078</t>
+  </si>
+  <si>
+    <t>0,013894</t>
+  </si>
+  <si>
+    <t>0,014101</t>
+  </si>
+  <si>
+    <t>0,014320</t>
+  </si>
+  <si>
+    <t>0,014462</t>
+  </si>
+  <si>
+    <t>0,014489</t>
+  </si>
+  <si>
+    <t>0,015205</t>
+  </si>
+  <si>
+    <t>0,014238</t>
+  </si>
+  <si>
+    <t>0,014312</t>
+  </si>
+  <si>
+    <t>0,014586</t>
+  </si>
+  <si>
+    <t>0,015114</t>
+  </si>
+  <si>
+    <t>0,015048</t>
+  </si>
+  <si>
+    <t>0,013607</t>
+  </si>
+  <si>
+    <t>0,013638</t>
+  </si>
+  <si>
+    <t>0,014043</t>
+  </si>
+  <si>
+    <t>0,014175</t>
+  </si>
+  <si>
+    <t>0,014280</t>
+  </si>
+  <si>
+    <t>0,014255</t>
+  </si>
+  <si>
+    <t>0,014500</t>
+  </si>
+  <si>
+    <t>0,014585</t>
+  </si>
+  <si>
+    <t>0,014526</t>
+  </si>
+  <si>
+    <t>0,014495</t>
+  </si>
+  <si>
+    <t>0,014521</t>
+  </si>
+  <si>
+    <t>0,014485</t>
+  </si>
+  <si>
+    <t>0,014624</t>
+  </si>
+  <si>
+    <t>0,014743</t>
+  </si>
+  <si>
+    <t>0,014729</t>
+  </si>
+  <si>
+    <t>0,015031</t>
+  </si>
+  <si>
+    <t>0,015319</t>
+  </si>
+  <si>
+    <t>0,015327</t>
+  </si>
+  <si>
+    <t>0,015353</t>
+  </si>
+  <si>
+    <t>0,013591</t>
+  </si>
+  <si>
+    <t>0,014576</t>
+  </si>
+  <si>
+    <t>0,015696</t>
+  </si>
+  <si>
+    <t>0,015820</t>
+  </si>
+  <si>
+    <t>0,016817</t>
+  </si>
+  <si>
+    <t>0,016612</t>
+  </si>
+  <si>
+    <t>0,016662</t>
+  </si>
+  <si>
+    <t>0,015768</t>
+  </si>
+  <si>
+    <t>0,016141</t>
+  </si>
+  <si>
+    <t>0,016963</t>
+  </si>
+  <si>
+    <t>0,016345</t>
+  </si>
+  <si>
+    <t>0,015761</t>
+  </si>
+  <si>
+    <t>0,015882</t>
+  </si>
+  <si>
+    <t>0,014895</t>
+  </si>
+  <si>
+    <t>0,015178</t>
+  </si>
+  <si>
+    <t>0,015519</t>
+  </si>
+  <si>
+    <t>0,014298</t>
+  </si>
+  <si>
+    <t>0,014264</t>
+  </si>
+  <si>
+    <t>0,014400</t>
+  </si>
+  <si>
+    <t>0,016425</t>
+  </si>
+  <si>
+    <t>0,017550</t>
+  </si>
+  <si>
+    <t>0,017561</t>
+  </si>
+  <si>
+    <t>0,014000</t>
+  </si>
+  <si>
+    <t>0,015116</t>
+  </si>
+  <si>
+    <t>0,015745</t>
+  </si>
+  <si>
+    <t>0,016101</t>
+  </si>
+  <si>
+    <t>0,016520</t>
+  </si>
+  <si>
+    <t>0,016188</t>
+  </si>
+  <si>
+    <t>0,015709</t>
+  </si>
+  <si>
+    <t>0,015625</t>
+  </si>
+  <si>
+    <t>0,016494</t>
+  </si>
+  <si>
+    <t>0,016060</t>
+  </si>
+  <si>
+    <t>0,015866</t>
+  </si>
+  <si>
+    <t>0,015621</t>
+  </si>
+  <si>
+    <t>0,015040</t>
+  </si>
+  <si>
+    <t>0,014817</t>
+  </si>
+  <si>
+    <t>0,014948</t>
+  </si>
+  <si>
+    <t>0,014625</t>
+  </si>
+  <si>
+    <t>0,014989</t>
+  </si>
+  <si>
+    <t>0,014701</t>
+  </si>
+  <si>
+    <t>0,017321</t>
+  </si>
+  <si>
+    <t>0,016744</t>
+  </si>
+  <si>
+    <t>0,016982</t>
+  </si>
+  <si>
+    <t>0,017119</t>
+  </si>
+  <si>
+    <t>0,016197</t>
+  </si>
+  <si>
+    <t>0,016936</t>
+  </si>
+  <si>
+    <t>0,018566</t>
+  </si>
+  <si>
+    <t>0,019861</t>
+  </si>
+  <si>
+    <t>0,017170</t>
+  </si>
+  <si>
+    <t>0,017034</t>
+  </si>
+  <si>
+    <t>0,016672</t>
+  </si>
+  <si>
+    <t>0,017403</t>
+  </si>
+  <si>
+    <t>0,016957</t>
+  </si>
+  <si>
+    <t>0,016068</t>
+  </si>
+  <si>
+    <t>0,015899</t>
+  </si>
+  <si>
+    <t>0,017531</t>
+  </si>
+  <si>
+    <t>0,017537</t>
+  </si>
+  <si>
+    <t>0,016449</t>
+  </si>
+  <si>
+    <t>0,015785</t>
+  </si>
+  <si>
+    <t>0,016160</t>
+  </si>
+  <si>
+    <t>0,016186</t>
+  </si>
+  <si>
+    <t>0,017765</t>
+  </si>
+  <si>
+    <t>0,015751</t>
+  </si>
+  <si>
+    <t>0,019693</t>
+  </si>
+  <si>
+    <t>0,021002</t>
+  </si>
+  <si>
+    <t>0,017656</t>
+  </si>
+  <si>
+    <t>0,017080</t>
+  </si>
+  <si>
+    <t>0,016354</t>
+  </si>
+  <si>
+    <t>0,019680</t>
+  </si>
+  <si>
+    <t>0,018737</t>
+  </si>
+  <si>
+    <t>0,017987</t>
+  </si>
+  <si>
+    <t>0,018139</t>
+  </si>
+  <si>
+    <t>0,017726</t>
+  </si>
+  <si>
+    <t>0,018341</t>
+  </si>
+  <si>
+    <t>0,017292</t>
+  </si>
+  <si>
+    <t>0,017111</t>
+  </si>
+  <si>
+    <t>0,016709</t>
+  </si>
+  <si>
+    <t>0,020340</t>
+  </si>
+  <si>
+    <t>0,017057</t>
+  </si>
+  <si>
+    <t>0,016157</t>
+  </si>
+  <si>
+    <t>0,016100</t>
+  </si>
+  <si>
+    <t>0,016244</t>
+  </si>
+  <si>
+    <t>0,015956</t>
+  </si>
+  <si>
+    <t>0,016338</t>
+  </si>
+  <si>
+    <t>0,015728</t>
+  </si>
+  <si>
+    <t>0,020156</t>
+  </si>
+  <si>
+    <t>0,022821</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +795,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +803,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +1124,953 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2">
+        <v>45475</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2">
+        <v>45476</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2">
+        <v>45477</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2">
+        <v>45478</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>188</v>
+      </c>
+      <c r="K6" t="s">
+        <v>209</v>
+      </c>
+      <c r="L6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2">
+        <v>45481</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2">
+        <v>45482</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2">
+        <v>45483</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K9" t="s">
+        <v>212</v>
+      </c>
+      <c r="L9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2">
+        <v>45484</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" t="s">
+        <v>213</v>
+      </c>
+      <c r="L10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2">
+        <v>45485</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" t="s">
+        <v>214</v>
+      </c>
+      <c r="L11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2">
+        <v>45488</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
+        <v>194</v>
+      </c>
+      <c r="K12" t="s">
+        <v>215</v>
+      </c>
+      <c r="L12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2">
+        <v>45489</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" t="s">
+        <v>195</v>
+      </c>
+      <c r="K13" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2">
+        <v>45490</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>174</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" t="s">
+        <v>196</v>
+      </c>
+      <c r="K14" t="s">
+        <v>217</v>
+      </c>
+      <c r="L14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2">
+        <v>45491</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K15" t="s">
+        <v>218</v>
+      </c>
+      <c r="L15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2">
+        <v>45492</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" t="s">
+        <v>176</v>
+      </c>
+      <c r="I16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" t="s">
+        <v>219</v>
+      </c>
+      <c r="L16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2">
+        <v>45495</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" t="s">
+        <v>177</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" t="s">
+        <v>199</v>
+      </c>
+      <c r="K17" t="s">
+        <v>220</v>
+      </c>
+      <c r="L17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2">
+        <v>45496</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" t="s">
+        <v>178</v>
+      </c>
+      <c r="I18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" t="s">
+        <v>200</v>
+      </c>
+      <c r="K18" t="s">
+        <v>221</v>
+      </c>
+      <c r="L18" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2">
+        <v>45497</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" t="s">
+        <v>179</v>
+      </c>
+      <c r="I19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K19" t="s">
+        <v>222</v>
+      </c>
+      <c r="L19" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2">
+        <v>45498</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>158</v>
+      </c>
+      <c r="H20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" t="s">
+        <v>223</v>
+      </c>
+      <c r="L20" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2">
+        <v>45499</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" t="s">
+        <v>181</v>
+      </c>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" t="s">
+        <v>224</v>
+      </c>
+      <c r="L21" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2">
+        <v>45502</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s">
+        <v>160</v>
+      </c>
+      <c r="H22" t="s">
+        <v>182</v>
+      </c>
+      <c r="I22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" t="s">
+        <v>225</v>
+      </c>
+      <c r="L22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2">
+        <v>45503</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" t="s">
+        <v>183</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" t="s">
+        <v>204</v>
+      </c>
+      <c r="K23" t="s">
+        <v>226</v>
+      </c>
+      <c r="L23" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>